--- a/templates/AutomationOrg/CustomerMaster.xlsx
+++ b/templates/AutomationOrg/CustomerMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC0D9-CB05-47C5-BA36-32036A630AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A425559D-6F06-46F0-A3B7-FABB9A79D996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22590" yWindow="2340" windowWidth="23415" windowHeight="7875" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader_Invoicing&amp;Credit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
   <si>
     <t>API Mode</t>
   </si>
@@ -77,9 +77,6 @@
     <t>a9L5f000000seuO</t>
   </si>
   <si>
-    <t>AutomationCust-2</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>a6B5f000000PqAT</t>
+  </si>
+  <si>
+    <t>Customer_InvoicingCredit</t>
+  </si>
+  <si>
+    <t>AUTOMATIONCUST-3</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +515,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -529,7 +535,7 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -539,11 +545,15 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -552,7 +562,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +599,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -606,7 +616,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -624,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -699,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -755,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -772,7 +782,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -784,13 +794,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -814,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E608B-C35A-4DF1-88E4-ACEE9E872FF5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,11 +895,12 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -897,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB83414-1FDB-48B7-AD90-293B7141913A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -935,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -952,7 +963,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -970,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1006,16 +1017,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -1043,18 +1054,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -1083,18 +1094,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/CustomerMaster.xlsx
+++ b/templates/AutomationOrg/CustomerMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC0D9-CB05-47C5-BA36-32036A630AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85390D5D-B866-4620-9108-6FFBF80FEE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22590" yWindow="2340" windowWidth="23415" windowHeight="7875" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader_Invoicing&amp;Credit" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>API Mode</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>a6B5f000000PqAT</t>
+  </si>
+  <si>
+    <t>AUTOMATIONCUST-3</t>
   </si>
 </sst>
 </file>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E608B-C35A-4DF1-88E4-ACEE9E872FF5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -897,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB83414-1FDB-48B7-AD90-293B7141913A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
